--- a/data/trans_dic/P56$familiar-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiar-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1373173644297241</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3720111079691467</v>
+        <v>0.3720111079691466</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2236602610148619</v>
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04532559301639698</v>
+        <v>0.04320125222002844</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0416329631024437</v>
+        <v>0.04166631889651527</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.244024009143909</v>
+        <v>0.2370809069752827</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08518865998433095</v>
+        <v>0.08621934188214608</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1133795995521864</v>
+        <v>0.1155481982898675</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04991462955279306</v>
+        <v>0.04908297544293928</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4454516849362263</v>
+        <v>0.4430052292163911</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07867187510908105</v>
+        <v>0.07959903834397009</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1106018089663519</v>
+        <v>0.1147668849779276</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06385390362417581</v>
+        <v>0.06375567641039157</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4044232410579225</v>
+        <v>0.3965456070221386</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4025110556539606</v>
+        <v>0.4040567872204434</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3653376033465613</v>
+        <v>0.3493314981374294</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3377864107146644</v>
+        <v>0.3418056437761551</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5260794225756078</v>
+        <v>0.5266424663243093</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4394926375866835</v>
+        <v>0.4392890177534886</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3580253199409723</v>
+        <v>0.3689575701838196</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2773108265403543</v>
+        <v>0.2577023138634915</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6371640803180405</v>
+        <v>0.6392265279776406</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3409076062967468</v>
+        <v>0.3471395543631873</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3132140951910944</v>
+        <v>0.3261631025970358</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2364381006902981</v>
+        <v>0.2317919586409236</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5660997447085142</v>
+        <v>0.560488601975061</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.184658241925085</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5446413114042687</v>
+        <v>0.5446413114042685</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1688753057982153</v>
@@ -821,7 +821,7 @@
         <v>0.2917406651675533</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.5581428732845299</v>
+        <v>0.55814287328453</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1898330346125204</v>
@@ -833,7 +833,7 @@
         <v>0.261669559237233</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5545741315015156</v>
+        <v>0.5545741315015155</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1249137937082575</v>
+        <v>0.1033263545589715</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1806313599213218</v>
+        <v>0.1889554433549378</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09992883518383153</v>
+        <v>0.0992690248632008</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4551998655294973</v>
+        <v>0.4608937868724813</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08542288219126973</v>
+        <v>0.08364979371867169</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2426311332677714</v>
+        <v>0.2403544097200926</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2060347084676497</v>
+        <v>0.2101933542544588</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5080545125590114</v>
+        <v>0.5067546705384196</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.118567389442088</v>
+        <v>0.1241097356682556</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2430155044842947</v>
+        <v>0.2526750859531497</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.196058071603425</v>
+        <v>0.1989593086428297</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5117182744020652</v>
+        <v>0.5111201646572119</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3854305667937173</v>
+        <v>0.3836622818984096</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4236882104370518</v>
+        <v>0.4386403477145448</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2989385806828553</v>
+        <v>0.3012674136354361</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6382388419848875</v>
+        <v>0.6424121202133867</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2892839841355549</v>
+        <v>0.2744913790301888</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3901676827502981</v>
+        <v>0.3899815994293403</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3900536368451613</v>
+        <v>0.3841563621136508</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6106362850490979</v>
+        <v>0.6077579022867537</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2843365502997254</v>
+        <v>0.2779655374275068</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3793387771738581</v>
+        <v>0.3771483318092348</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3432546915151186</v>
+        <v>0.3489803442065373</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6041968110167208</v>
+        <v>0.5992677062718955</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1107962855167894</v>
+        <v>0.1172967034000163</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1543425693935445</v>
+        <v>0.1748232253608195</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1051177534982046</v>
+        <v>0.09720228234616667</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4139546664433064</v>
+        <v>0.41295069601322</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1103325188058472</v>
+        <v>0.1032092125007251</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2354706799449807</v>
+        <v>0.2376589318981768</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1862756040773259</v>
+        <v>0.1782671614827454</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5138843019793787</v>
+        <v>0.5096775015769961</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1340903685962622</v>
+        <v>0.1277663974719012</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2313366517240805</v>
+        <v>0.229382702582463</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1726767102243293</v>
+        <v>0.1730634157465337</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4958209510127506</v>
+        <v>0.4959833005710579</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3264269189583214</v>
+        <v>0.3344528014569528</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3693727612120711</v>
+        <v>0.3818927642927004</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2779325963692897</v>
+        <v>0.2639542840429796</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5714460888680083</v>
+        <v>0.5754556056541611</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2746645784691273</v>
+        <v>0.2737409364154137</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3669746849415855</v>
+        <v>0.364809835805301</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3298738081073748</v>
+        <v>0.3250293695501716</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6007935047953623</v>
+        <v>0.5978108457559543</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2673578747492812</v>
+        <v>0.2639120786424853</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3421768818472574</v>
+        <v>0.340689075035521</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2872413927789017</v>
+        <v>0.2936768993529574</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5752238568552629</v>
+        <v>0.578298275574024</v>
       </c>
     </row>
     <row r="13">
@@ -1329,37 +1329,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>971</v>
+        <v>926</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7560</v>
+        <v>7345</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1880</v>
+        <v>1903</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4777</v>
+        <v>4869</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2056</v>
+        <v>2021</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>26487</v>
+        <v>26342</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2748</v>
+        <v>2781</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>7030</v>
+        <v>7295</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3977</v>
+        <v>3971</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>36578</v>
+        <v>35865</v>
       </c>
     </row>
     <row r="7">
@@ -1370,40 +1370,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5178</v>
+        <v>5198</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7829</v>
+        <v>7486</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7127</v>
+        <v>7211</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16299</v>
+        <v>16316</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9699</v>
+        <v>9695</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>15085</v>
+        <v>15546</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11420</v>
+        <v>10613</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>37887</v>
+        <v>38010</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11909</v>
+        <v>12127</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>19909</v>
+        <v>20732</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>14726</v>
+        <v>14436</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>51200</v>
+        <v>50693</v>
       </c>
     </row>
     <row r="8">
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4424</v>
+        <v>3659</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10310</v>
+        <v>10785</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5096</v>
+        <v>5063</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>35321</v>
+        <v>35763</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6106</v>
+        <v>5979</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>39576</v>
+        <v>39204</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>26909</v>
+        <v>27453</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>109723</v>
+        <v>109442</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>12674</v>
+        <v>13266</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>53509</v>
+        <v>55636</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>35605</v>
+        <v>36132</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>150221</v>
+        <v>150045</v>
       </c>
     </row>
     <row r="11">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13650</v>
+        <v>13588</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24182</v>
+        <v>25036</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15246</v>
+        <v>15364</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>49524</v>
+        <v>49847</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>20677</v>
+        <v>19620</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>63640</v>
+        <v>63610</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>50943</v>
+        <v>50173</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>131877</v>
+        <v>131256</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>30393</v>
+        <v>29712</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>83525</v>
+        <v>83043</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>62337</v>
+        <v>63377</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>177369</v>
+        <v>175922</v>
       </c>
     </row>
     <row r="12">
@@ -1686,40 +1686,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5349</v>
+        <v>5663</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12117</v>
+        <v>13724</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7579</v>
+        <v>7008</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>44946</v>
+        <v>44837</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10321</v>
+        <v>9655</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>48329</v>
+        <v>48778</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>32000</v>
+        <v>30624</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>141539</v>
+        <v>140380</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19017</v>
+        <v>18120</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>65642</v>
+        <v>65087</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>42113</v>
+        <v>42208</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>190398</v>
+        <v>190460</v>
       </c>
     </row>
     <row r="15">
@@ -1730,40 +1730,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15760</v>
+        <v>16148</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28998</v>
+        <v>29980</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20038</v>
+        <v>19030</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>62045</v>
+        <v>62481</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>25693</v>
+        <v>25607</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>75320</v>
+        <v>74875</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>56668</v>
+        <v>55836</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>165476</v>
+        <v>164654</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>37918</v>
+        <v>37429</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>97093</v>
+        <v>96671</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>70054</v>
+        <v>71623</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>220889</v>
+        <v>222069</v>
       </c>
     </row>
     <row r="16">
